--- a/dependencies/brucella/abortus1/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/brucella/abortus1/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/abortus1/script_dependents/python/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\abortus1\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="55820" yWindow="10720" windowWidth="30880" windowHeight="16000"/>
+    <workbookView xWindow="55815" yWindow="10725" windowWidth="30885" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Grouping</t>
   </si>
@@ -68,9 +65,6 @@
     <t>gi|62288991|ref|NC_006932.1|-1199676</t>
   </si>
   <si>
-    <t>gi|62288991|ref|NC_006932.1|-1001583</t>
-  </si>
-  <si>
     <t>gi|62288991|ref|NC_006932.1|-1021107</t>
   </si>
   <si>
@@ -309,6 +303,15 @@
   </si>
   <si>
     <t>Babortus1-18</t>
+  </si>
+  <si>
+    <t>gi|62288991|ref|NC_006932.1|-1019691</t>
+  </si>
+  <si>
+    <t>Babortus1-19</t>
+  </si>
+  <si>
+    <t>gi|62316961|ref|NC_006933.1|-997415</t>
   </si>
 </sst>
 </file>
@@ -1323,19 +1326,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,372 +1346,380 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/dependencies/brucella/abortus1/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/brucella/abortus1/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\abortus1\script_dependents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/abortus1/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A937E02B-6971-024E-ACBB-3B55D1D4A113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55815" yWindow="10725" windowWidth="30885" windowHeight="16005"/>
+    <workbookView xWindow="55820" yWindow="10720" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -32,141 +33,6 @@
     <t>Absolute position</t>
   </si>
   <si>
-    <t>gi|62316961|ref|NC_006933.1|-1178807</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1667281</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1105793</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1601243</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1078238</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-371517</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1101181</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1116565</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1138603</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1011691</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1199676</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1021107</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-886597</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-2029490</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1078594</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1105544</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-2106074</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1080143</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1322580</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1002132</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1369057</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1137041</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-682928</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-420432</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-149392</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1322012</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1132740</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1438619</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1013844</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1067808</t>
-  </si>
-  <si>
-    <t>gi|62316961|ref|NC_006933.1|-228288</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1051993</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1303446</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1039612</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1310871</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1041527</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1621301</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1059529</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1326036</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1186220</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-971548</t>
-  </si>
-  <si>
-    <t>gi|62316961|ref|NC_006933.1|-177302</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1155825</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1096826</t>
-  </si>
-  <si>
-    <t>gi|62288991|ref|NC_006932.1|-1085991</t>
-  </si>
-  <si>
     <t>Babortus1-01</t>
   </si>
   <si>
@@ -305,19 +171,154 @@
     <t>Babortus1-18</t>
   </si>
   <si>
-    <t>gi|62288991|ref|NC_006932.1|-1019691</t>
-  </si>
-  <si>
     <t>Babortus1-19</t>
   </si>
   <si>
-    <t>gi|62316961|ref|NC_006933.1|-997415</t>
+    <t>NC_006933.1-1178807</t>
+  </si>
+  <si>
+    <t>NC_006933.1-997415</t>
+  </si>
+  <si>
+    <t>NC_006933.1-228288</t>
+  </si>
+  <si>
+    <t>NC_006933.1-177302</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1667281</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1105793</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1601243</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1078238</t>
+  </si>
+  <si>
+    <t>NC_006932.1-371517</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1101181</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1116565</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1138603</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1011691</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1199676</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1021107</t>
+  </si>
+  <si>
+    <t>NC_006932.1-886597</t>
+  </si>
+  <si>
+    <t>NC_006932.1-2029490</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1078594</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1105544</t>
+  </si>
+  <si>
+    <t>NC_006932.1-2106074</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1080143</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1322580</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1002132</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1369057</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1137041</t>
+  </si>
+  <si>
+    <t>NC_006932.1-682928</t>
+  </si>
+  <si>
+    <t>NC_006932.1-420432</t>
+  </si>
+  <si>
+    <t>NC_006932.1-149392</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1322012</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1132740</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1438619</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1013844</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1067808</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1051993</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1303446</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1039612</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1310871</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1041527</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1621301</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1059529</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1326036</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1186220</t>
+  </si>
+  <si>
+    <t>NC_006932.1-971548</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1155825</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1096826</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1085991</t>
+  </si>
+  <si>
+    <t>NC_006932.1-1019691</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1017,10 +1018,10 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="103"/>
-    <cellStyle name="Normal 3" xfId="102"/>
+    <cellStyle name="Normal 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 3" xfId="102" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="104"/>
+    <cellStyle name="Note 2" xfId="104" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1325,20 +1326,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,380 +1345,380 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
